--- a/tests/schema/fixtures/invalid-data.xlsx
+++ b/tests/schema/fixtures/invalid-data.xlsx
@@ -13,13 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Leaves" sheetId="3" r:id="rId1"/>
-    <sheet name="Normals" sheetId="6" r:id="rId2"/>
+    <sheet name="Normal records" sheetId="6" r:id="rId2"/>
     <sheet name="Transposed" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leaves!$A$1:$F$7</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>hi mom</t>
+  </si>
+  <si>
+    <t>id with underscores</t>
   </si>
 </sst>
 </file>
@@ -653,14 +656,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>28</v>
